--- a/biology/Zoologie/Conus_mozambicus/Conus_mozambicus.xlsx
+++ b/biology/Zoologie/Conus_mozambicus/Conus_mozambicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus mozambicus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le "Conus mozambicus" a une coquille de taille moyenne qui peut atteindre 65 mm de longueur totale. Elle possède une spire très pointue. La couleur de la coquille est terne et tachetée de brun, et il peut y avoir des taches plus sombres à l'épaule. La flèche de la coquille est étagée[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le "Conus mozambicus" a une coquille de taille moyenne qui peut atteindre 65 mm de longueur totale. Elle possède une spire très pointue. La couleur de la coquille est terne et tachetée de brun, et il peut y avoir des taches plus sombres à l'épaule. La flèche de la coquille est étagée. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cône Conus mozambicus est connu au large de la côte sud-africaine de Lüderitz Bay à Mossel Bay, de manière subtidale dans des eaux peu profondes. L'espèce est à cette région[2]. On la trouve également au large du Sénégal et du Mozambique.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à l'Afrique du Sud et se trouve du sud de la Namibie à l'est de Londres. Cette espèce a une aire de répartition restreinte mais il n'y a actuellement aucune menace majeure affectant cette espèce. L'espèce est communément trouvée, et alors que les populations intertidales peuvent être affectées par des événements de pollution provenant du développement municipal, les populations des eaux plus profondes sont peu susceptibles d'être affectées. L'espèce a été classée comme étant de préoccupation mineure[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cône Conus mozambicus est connu au large de la côte sud-africaine de Lüderitz Bay à Mossel Bay, de manière subtidale dans des eaux peu profondes. L'espèce est à cette région. On la trouve également au large du Sénégal et du Mozambique.
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à l'Afrique du Sud et se trouve du sud de la Namibie à l'est de Londres. Cette espèce a une aire de répartition restreinte mais il n'y a actuellement aucune menace majeure affectant cette espèce. L'espèce est communément trouvée, et alors que les populations intertidales peuvent être affectées par des événements de pollution provenant du développement municipal, les populations des eaux plus profondes sont peu susceptibles d'être affectées. L'espèce a été classée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_mozambicus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_mozambicus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus mozambicus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[4],[5].
-Synonymes
-Conus (Floraconus) mozambicus Hwass, 1792 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus mozambicus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass dans « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_mozambicus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_mozambicus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Floraconus) mozambicus Hwass, 1792 · appellation alternative
 Conus altispiratus G. B. Sowerby II, 1873 · non accepté
 Conus caffer Krauss, 1848 · non accepté
 Conus informis Hwass, 1792 · non accepté
@@ -589,9 +680,43 @@
 Conus macei Crosse, 1865 · non accepté
 Hermes mozambicus (Hwass, 1792) · non accepté
 Sciteconus mozambicus (Hwass, 1792) · non accepté
-Sciteconus mozambicus macei (Crosse, 1865) · non accepté
-Sous-espèces
-Conus mozambicus lautus Reeve, 1844
+Sciteconus mozambicus macei (Crosse, 1865) · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_mozambicus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_mozambicus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus mozambicus lautus Reeve, 1844
 Conus mozambicus mozambicus Hwass, 1792</t>
         </is>
       </c>
